--- a/wp5/WP5_Universities Social Private Returns.xlsx
+++ b/wp5/WP5_Universities Social Private Returns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Country\Russia\Data\SEASHELL\SEABYTE\edreru\wp5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE956D4-CE36-4281-B874-F81F3634BA20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FEAFBD-2801-4036-B8AC-D7D3A78FEA5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1498,12 +1498,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1513,6 +1507,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1839,7 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J376"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -1853,24 +1853,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>452</v>
       </c>
       <c r="C2" t="s">
@@ -1879,54 +1879,54 @@
       <c r="D2" t="s">
         <v>454</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>-0.18029999999999999</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>-4.7300000000000002E-2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>1102.4100000000001</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>296.8</v>
       </c>
       <c r="G3">
         <v>1277</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>258</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>267</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>263</v>
       </c>
     </row>
@@ -1937,10 +1937,10 @@
       <c r="B4">
         <v>1.44E-2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E4">
@@ -1969,10 +1969,10 @@
       <c r="B5">
         <v>-5.62E-2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5">
@@ -1994,17 +1994,17 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.17449999999999999</v>
       </c>
       <c r="B6">
         <v>-0.10440000000000001</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E6">
@@ -2033,10 +2033,10 @@
       <c r="B7">
         <v>-0.12230000000000001</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E7">
@@ -2065,10 +2065,10 @@
       <c r="B8">
         <v>-7.8E-2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E8">
@@ -2097,10 +2097,10 @@
       <c r="B9">
         <v>-8.4099999999999994E-2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E9">
@@ -2129,10 +2129,10 @@
       <c r="B10">
         <v>-4.1700000000000001E-2</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E10">
@@ -2161,10 +2161,10 @@
       <c r="B11">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E11">
@@ -2193,10 +2193,10 @@
       <c r="B12">
         <v>8.5699999999999998E-2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E12">
@@ -2225,10 +2225,10 @@
       <c r="B13">
         <v>-1.8700000000000001E-2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E13">
@@ -2257,10 +2257,10 @@
       <c r="B14">
         <v>-3.1399999999999997E-2</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E14">
@@ -2289,10 +2289,10 @@
       <c r="B15">
         <v>1.41E-2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E15">
@@ -2321,10 +2321,10 @@
       <c r="B16">
         <v>-8.3299999999999999E-2</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E16">
@@ -2353,10 +2353,10 @@
       <c r="B17">
         <v>-0.16850000000000001</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E17">
@@ -2385,10 +2385,10 @@
       <c r="B18">
         <v>-6.8900000000000003E-2</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E18">
@@ -2417,10 +2417,10 @@
       <c r="B19">
         <v>-0.1492</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E19">
@@ -2449,10 +2449,10 @@
       <c r="B20">
         <v>-0.1384</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E20">
@@ -2481,10 +2481,10 @@
       <c r="B21">
         <v>-0.11219999999999999</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E21">
@@ -2513,10 +2513,10 @@
       <c r="B22">
         <v>-0.1358</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E22">
@@ -2545,10 +2545,10 @@
       <c r="B23">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E23">
@@ -2577,10 +2577,10 @@
       <c r="B24">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E24">
@@ -2609,10 +2609,10 @@
       <c r="B25">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E25">
@@ -2641,10 +2641,10 @@
       <c r="B26">
         <v>8.3400000000000002E-2</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E26">
@@ -2673,10 +2673,10 @@
       <c r="B27">
         <v>-1.4E-2</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E27">
@@ -2705,10 +2705,10 @@
       <c r="B28">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E28">
@@ -2737,10 +2737,10 @@
       <c r="B29">
         <v>-0.23139999999999999</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E29">
@@ -2769,10 +2769,10 @@
       <c r="B30">
         <v>0.1502</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E30">
@@ -2801,10 +2801,10 @@
       <c r="B31">
         <v>0.1149</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E31">
@@ -2833,10 +2833,10 @@
       <c r="B32">
         <v>0.1086</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E32">
@@ -2865,10 +2865,10 @@
       <c r="B33">
         <v>-1.35E-2</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E33">
@@ -2890,17 +2890,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-5.33E-2</v>
       </c>
       <c r="B34">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E34">
@@ -2929,10 +2929,10 @@
       <c r="B35">
         <v>-6.3299999999999995E-2</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E35">
@@ -2961,10 +2961,10 @@
       <c r="B36">
         <v>-9.4000000000000004E-3</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E36">
@@ -2993,10 +2993,10 @@
       <c r="B37">
         <v>-0.1051</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E37">
@@ -3025,10 +3025,10 @@
       <c r="B38">
         <v>-0.1396</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E38">
@@ -3057,10 +3057,10 @@
       <c r="B39">
         <v>-7.9699999999999993E-2</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E39">
@@ -3089,10 +3089,10 @@
       <c r="B40">
         <v>-6.3E-2</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E40">
@@ -3121,10 +3121,10 @@
       <c r="B41">
         <v>-6.8500000000000005E-2</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E41">
@@ -3153,10 +3153,10 @@
       <c r="B42">
         <v>-0.1</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E42">
@@ -3185,10 +3185,10 @@
       <c r="B43">
         <v>-8.5900000000000004E-2</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E43">
@@ -3217,10 +3217,10 @@
       <c r="B44">
         <v>-2.5899999999999999E-2</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E44">
@@ -3249,10 +3249,10 @@
       <c r="B45">
         <v>-4.7999999999999996E-3</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E45">
@@ -3281,10 +3281,10 @@
       <c r="B46">
         <v>-0.11310000000000001</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E46">
@@ -3313,10 +3313,10 @@
       <c r="B47">
         <v>1.23E-2</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E47">
@@ -3345,10 +3345,10 @@
       <c r="B48">
         <v>-8.1600000000000006E-2</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E48">
@@ -3377,10 +3377,10 @@
       <c r="B49">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E49">
@@ -3409,10 +3409,10 @@
       <c r="B50">
         <v>2.24E-2</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E50">
@@ -3441,10 +3441,10 @@
       <c r="B51">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E51">
@@ -3473,10 +3473,10 @@
       <c r="B52">
         <v>-6.2300000000000001E-2</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E52">
@@ -3505,10 +3505,10 @@
       <c r="B53">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E53">
@@ -3537,10 +3537,10 @@
       <c r="B54">
         <v>-6.1400000000000003E-2</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E54">
@@ -3569,10 +3569,10 @@
       <c r="B55">
         <v>-5.8700000000000002E-2</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E55">
@@ -3601,10 +3601,10 @@
       <c r="B56">
         <v>-9.7600000000000006E-2</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E56">
@@ -3626,17 +3626,17 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-0.16839999999999999</v>
       </c>
       <c r="B57">
         <v>-0.12139999999999999</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E57">
@@ -3665,10 +3665,10 @@
       <c r="B58">
         <v>-7.5200000000000003E-2</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E58">
@@ -3697,10 +3697,10 @@
       <c r="B59">
         <v>-9.2499999999999999E-2</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E59">
@@ -3729,10 +3729,10 @@
       <c r="B60">
         <v>-9.2499999999999999E-2</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E60">
@@ -3761,10 +3761,10 @@
       <c r="B61">
         <v>-8.43E-2</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E61">
@@ -3793,10 +3793,10 @@
       <c r="B62">
         <v>-6.2899999999999998E-2</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E62">
@@ -3825,10 +3825,10 @@
       <c r="B63">
         <v>-0.11260000000000001</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E63">
@@ -3857,10 +3857,10 @@
       <c r="B64">
         <v>-0.1157</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E64">
@@ -3889,10 +3889,10 @@
       <c r="B65">
         <v>-8.4900000000000003E-2</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E65">
@@ -3921,10 +3921,10 @@
       <c r="B66">
         <v>-5.2499999999999998E-2</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E66">
@@ -3953,10 +3953,10 @@
       <c r="B67">
         <v>-0.1174</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E67">
@@ -3985,10 +3985,10 @@
       <c r="B68">
         <v>-2.8E-3</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E68">
@@ -4017,10 +4017,10 @@
       <c r="B69">
         <v>-7.1900000000000006E-2</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E69">
@@ -4049,10 +4049,10 @@
       <c r="B70">
         <v>-8.6499999999999994E-2</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E70">
@@ -4081,10 +4081,10 @@
       <c r="B71">
         <v>-5.0599999999999999E-2</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E71">
@@ -4113,10 +4113,10 @@
       <c r="B72">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E72">
@@ -4145,10 +4145,10 @@
       <c r="B73">
         <v>-0.12089999999999999</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E73">
@@ -4177,10 +4177,10 @@
       <c r="B74">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E74">
@@ -4209,10 +4209,10 @@
       <c r="B75">
         <v>-1.1000000000000001E-3</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E75">
@@ -4241,10 +4241,10 @@
       <c r="B76">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E76">
@@ -4273,10 +4273,10 @@
       <c r="B77">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E77">
@@ -4305,10 +4305,10 @@
       <c r="B78">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E78">
@@ -4337,10 +4337,10 @@
       <c r="B79">
         <v>-4.8899999999999999E-2</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E79">
@@ -4369,10 +4369,10 @@
       <c r="B80">
         <v>-3.6200000000000003E-2</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E80">
@@ -4401,10 +4401,10 @@
       <c r="B81">
         <v>-8.43E-2</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E81">
@@ -4433,10 +4433,10 @@
       <c r="B82">
         <v>-0.13139999999999999</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E82">
@@ -4465,10 +4465,10 @@
       <c r="B83">
         <v>-0.13139999999999999</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E83">
@@ -4497,10 +4497,10 @@
       <c r="B84">
         <v>-1.78E-2</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E84">
@@ -4529,10 +4529,10 @@
       <c r="B85">
         <v>0.10589999999999999</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E85">
@@ -4561,10 +4561,10 @@
       <c r="B86">
         <v>-0.15090000000000001</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E86">
@@ -4593,10 +4593,10 @@
       <c r="B87">
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E87">
@@ -4618,17 +4618,17 @@
         <v>581</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>-7.4999999999999997E-3</v>
       </c>
       <c r="B88">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E88">
@@ -4657,10 +4657,10 @@
       <c r="B89">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E89">
@@ -4689,10 +4689,10 @@
       <c r="B90">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E90">
@@ -4721,10 +4721,10 @@
       <c r="B91">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E91">
@@ -4753,10 +4753,10 @@
       <c r="B92">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E92">
@@ -4785,10 +4785,10 @@
       <c r="B93">
         <v>-2.5600000000000001E-2</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E93">
@@ -4817,10 +4817,10 @@
       <c r="B94">
         <v>3.61E-2</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E94">
@@ -4849,10 +4849,10 @@
       <c r="B95">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E95">
@@ -4881,10 +4881,10 @@
       <c r="B96">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E96">
@@ -4913,10 +4913,10 @@
       <c r="B97">
         <v>-0.21560000000000001</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E97">
@@ -4945,10 +4945,10 @@
       <c r="B98">
         <v>-0.21820000000000001</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E98">
@@ -4977,10 +4977,10 @@
       <c r="B99">
         <v>-0.14979999999999999</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E99">
@@ -5009,10 +5009,10 @@
       <c r="B100">
         <v>-0.2122</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E100">
@@ -5041,10 +5041,10 @@
       <c r="B101">
         <v>-0.1618</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E101">
@@ -5073,10 +5073,10 @@
       <c r="B102">
         <v>-6.3E-2</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E102">
@@ -5105,10 +5105,10 @@
       <c r="B103">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E103">
@@ -5137,10 +5137,10 @@
       <c r="B104">
         <v>-6.93E-2</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E104">
@@ -5169,10 +5169,10 @@
       <c r="B105">
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E105">
@@ -5201,10 +5201,10 @@
       <c r="B106">
         <v>7.7600000000000002E-2</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E106">
@@ -5233,10 +5233,10 @@
       <c r="B107">
         <v>-7.7799999999999994E-2</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E107">
@@ -5265,10 +5265,10 @@
       <c r="B108">
         <v>-5.96E-2</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E108">
@@ -5297,10 +5297,10 @@
       <c r="B109">
         <v>-8.09E-2</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E109">
@@ -5329,10 +5329,10 @@
       <c r="B110">
         <v>-3.04E-2</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E110">
@@ -5361,10 +5361,10 @@
       <c r="B111">
         <v>-5.6399999999999999E-2</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E111">
@@ -5393,10 +5393,10 @@
       <c r="B112">
         <v>-0.09</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E112">
@@ -5425,10 +5425,10 @@
       <c r="B113">
         <v>-8.7300000000000003E-2</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E113">
@@ -5457,10 +5457,10 @@
       <c r="B114">
         <v>-3.8399999999999997E-2</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E114">
@@ -5489,10 +5489,10 @@
       <c r="B115">
         <v>-4.5900000000000003E-2</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E115">
@@ -5521,10 +5521,10 @@
       <c r="B116">
         <v>-6.3E-2</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E116">
@@ -5553,10 +5553,10 @@
       <c r="B117">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E117">
@@ -5585,10 +5585,10 @@
       <c r="B118">
         <v>-9.5699999999999993E-2</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E118">
@@ -5617,10 +5617,10 @@
       <c r="B119">
         <v>-9.5699999999999993E-2</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E119">
@@ -5649,10 +5649,10 @@
       <c r="B120">
         <v>-0.1089</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E120">
@@ -5681,10 +5681,10 @@
       <c r="B121">
         <v>-2.0199999999999999E-2</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E121">
@@ -5713,10 +5713,10 @@
       <c r="B122">
         <v>-7.0300000000000001E-2</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E122">
@@ -5745,10 +5745,10 @@
       <c r="B123">
         <v>-0.12809999999999999</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E123">
@@ -5777,10 +5777,10 @@
       <c r="B124">
         <v>-6.5699999999999995E-2</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E124">
@@ -5809,10 +5809,10 @@
       <c r="B125">
         <v>0.10290000000000001</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E125">
@@ -5841,10 +5841,10 @@
       <c r="B126">
         <v>1.12E-2</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E126">
@@ -5873,10 +5873,10 @@
       <c r="B127">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E127">
@@ -5905,10 +5905,10 @@
       <c r="B128">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E128">
@@ -5937,10 +5937,10 @@
       <c r="B129">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E129">
@@ -5969,10 +5969,10 @@
       <c r="B130">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E130">
@@ -6001,10 +6001,10 @@
       <c r="B131">
         <v>-4.9000000000000002E-2</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E131">
@@ -6033,10 +6033,10 @@
       <c r="B132">
         <v>-3.9300000000000002E-2</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E132">
@@ -6065,10 +6065,10 @@
       <c r="B133">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E133">
@@ -6097,10 +6097,10 @@
       <c r="B134">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E134">
@@ -6129,10 +6129,10 @@
       <c r="B135">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E135">
@@ -6161,10 +6161,10 @@
       <c r="B136">
         <v>-0.10349999999999999</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E136">
@@ -6193,10 +6193,10 @@
       <c r="B137">
         <v>-4.3700000000000003E-2</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E137">
@@ -6225,10 +6225,10 @@
       <c r="B138">
         <v>-0.19889999999999999</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="1" t="s">
         <v>172</v>
       </c>
       <c r="E138">
@@ -6257,10 +6257,10 @@
       <c r="B139">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="1" t="s">
         <v>174</v>
       </c>
       <c r="E139">
@@ -6289,10 +6289,10 @@
       <c r="B140">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="1" t="s">
         <v>174</v>
       </c>
       <c r="E140">
@@ -6321,10 +6321,10 @@
       <c r="B141">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E141">
@@ -6353,10 +6353,10 @@
       <c r="B142">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E142">
@@ -6385,10 +6385,10 @@
       <c r="B143">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E143">
@@ -6417,10 +6417,10 @@
       <c r="B144">
         <v>0.1038</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E144">
@@ -6449,10 +6449,10 @@
       <c r="B145">
         <v>-0.13619999999999999</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E145">
@@ -6481,10 +6481,10 @@
       <c r="B146">
         <v>-3.5000000000000001E-3</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E146">
@@ -6513,10 +6513,10 @@
       <c r="B147">
         <v>-8.7400000000000005E-2</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E147">
@@ -6545,10 +6545,10 @@
       <c r="B148">
         <v>-0.22950000000000001</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="1" t="s">
         <v>186</v>
       </c>
       <c r="E148">
@@ -6577,10 +6577,10 @@
       <c r="B149">
         <v>-0.1827</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="1" t="s">
         <v>186</v>
       </c>
       <c r="E149">
@@ -6609,10 +6609,10 @@
       <c r="B150">
         <v>-0.22950000000000001</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E150">
@@ -6641,10 +6641,10 @@
       <c r="B151">
         <v>-0.214</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E151">
@@ -6673,10 +6673,10 @@
       <c r="B152">
         <v>-0.1973</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E152">
@@ -6705,10 +6705,10 @@
       <c r="B153">
         <v>-0.1464</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E153">
@@ -6737,10 +6737,10 @@
       <c r="B154">
         <v>-0.18240000000000001</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E154">
@@ -6769,10 +6769,10 @@
       <c r="B155">
         <v>-0.22450000000000001</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E155">
@@ -6801,10 +6801,10 @@
       <c r="B156">
         <v>-0.2069</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E156">
@@ -6833,10 +6833,10 @@
       <c r="B157">
         <v>-0.14050000000000001</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E157">
@@ -6865,10 +6865,10 @@
       <c r="B158">
         <v>-6.6600000000000006E-2</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="1" t="s">
         <v>199</v>
       </c>
       <c r="E158">
@@ -6897,10 +6897,10 @@
       <c r="B159">
         <v>-8.8200000000000001E-2</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E159">
@@ -6929,10 +6929,10 @@
       <c r="B160">
         <v>-0.1061</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E160">
@@ -6961,10 +6961,10 @@
       <c r="B161">
         <v>-2.7199999999999998E-2</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E161">
@@ -6993,10 +6993,10 @@
       <c r="B162">
         <v>0.20080000000000001</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E162">
@@ -7025,10 +7025,10 @@
       <c r="B163">
         <v>-0.12690000000000001</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="1" t="s">
         <v>207</v>
       </c>
       <c r="E163">
@@ -7057,10 +7057,10 @@
       <c r="B164">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="1" t="s">
         <v>207</v>
       </c>
       <c r="E164">
@@ -7089,10 +7089,10 @@
       <c r="B165">
         <v>5.79E-2</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="1" t="s">
         <v>207</v>
       </c>
       <c r="E165">
@@ -7121,10 +7121,10 @@
       <c r="B166">
         <v>0.10580000000000001</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="1" t="s">
         <v>207</v>
       </c>
       <c r="E166">
@@ -7153,10 +7153,10 @@
       <c r="B167">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="1" t="s">
         <v>207</v>
       </c>
       <c r="E167">
@@ -7185,10 +7185,10 @@
       <c r="B168">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="1" t="s">
         <v>207</v>
       </c>
       <c r="E168">
@@ -7217,10 +7217,10 @@
       <c r="B169">
         <v>-4.7000000000000002E-3</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="1" t="s">
         <v>214</v>
       </c>
       <c r="E169">
@@ -7249,10 +7249,10 @@
       <c r="B170">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="1" t="s">
         <v>214</v>
       </c>
       <c r="E170">
@@ -7281,10 +7281,10 @@
       <c r="B171">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E171">
@@ -7313,10 +7313,10 @@
       <c r="B172">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E172">
@@ -7345,10 +7345,10 @@
       <c r="B173">
         <v>-0.14430000000000001</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E173">
@@ -7377,10 +7377,10 @@
       <c r="B174">
         <v>1.4E-2</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D174" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E174">
@@ -7409,10 +7409,10 @@
       <c r="B175">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E175">
@@ -7441,10 +7441,10 @@
       <c r="B176">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E176">
@@ -7473,10 +7473,10 @@
       <c r="B177">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E177">
@@ -7505,10 +7505,10 @@
       <c r="B178">
         <v>-1.8100000000000002E-2</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E178">
@@ -7537,10 +7537,10 @@
       <c r="B179">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E179">
@@ -7569,10 +7569,10 @@
       <c r="B180">
         <v>8.9599999999999999E-2</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E180">
@@ -7601,10 +7601,10 @@
       <c r="B181">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E181">
@@ -7633,10 +7633,10 @@
       <c r="B182">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E182">
@@ -7665,10 +7665,10 @@
       <c r="B183">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D183" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E183">
@@ -7697,10 +7697,10 @@
       <c r="B184">
         <v>-0.1048</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D184" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E184">
@@ -7729,10 +7729,10 @@
       <c r="B185">
         <v>-7.0599999999999996E-2</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E185">
@@ -7761,10 +7761,10 @@
       <c r="B186">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E186">
@@ -7793,10 +7793,10 @@
       <c r="B187">
         <v>0.158</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E187">
@@ -7825,10 +7825,10 @@
       <c r="B188">
         <v>-3.4099999999999998E-2</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D188" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E188">
@@ -7857,10 +7857,10 @@
       <c r="B189">
         <v>-8.9099999999999999E-2</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="D189" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E189">
@@ -7889,10 +7889,10 @@
       <c r="B190">
         <v>-2.8000000000000001E-2</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E190">
@@ -7921,10 +7921,10 @@
       <c r="B191">
         <v>-4.4299999999999999E-2</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="D191" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E191">
@@ -7953,10 +7953,10 @@
       <c r="B192">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D192" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E192">
@@ -7985,10 +7985,10 @@
       <c r="B193">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D193" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E193">
@@ -8017,10 +8017,10 @@
       <c r="B194">
         <v>0.14030000000000001</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D194" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E194">
@@ -8049,10 +8049,10 @@
       <c r="B195">
         <v>-1.5900000000000001E-2</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D195" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E195">
@@ -8081,10 +8081,10 @@
       <c r="B196">
         <v>-5.4100000000000002E-2</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D196" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E196">
@@ -8113,10 +8113,10 @@
       <c r="B197">
         <v>4.6300000000000001E-2</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D197" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E197">
@@ -8145,10 +8145,10 @@
       <c r="B198">
         <v>-4.7999999999999996E-3</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D198" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E198">
@@ -8177,10 +8177,10 @@
       <c r="B199">
         <v>-2.4500000000000001E-2</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E199">
@@ -8209,10 +8209,10 @@
       <c r="B200">
         <v>1.14E-2</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="D200" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E200">
@@ -8241,10 +8241,10 @@
       <c r="B201">
         <v>-3.0700000000000002E-2</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D201" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E201">
@@ -8273,10 +8273,10 @@
       <c r="B202">
         <v>1.26E-2</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="1" t="s">
         <v>254</v>
       </c>
       <c r="E202">
@@ -8305,10 +8305,10 @@
       <c r="B203">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D203" s="1" t="s">
         <v>254</v>
       </c>
       <c r="E203">
@@ -8337,10 +8337,10 @@
       <c r="B204">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="D204" s="1" t="s">
         <v>254</v>
       </c>
       <c r="E204">
@@ -8369,10 +8369,10 @@
       <c r="B205">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D205" s="3" t="s">
+      <c r="D205" s="1" t="s">
         <v>254</v>
       </c>
       <c r="E205">
@@ -8401,10 +8401,10 @@
       <c r="B206">
         <v>-5.1200000000000002E-2</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D206" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E206">
@@ -8433,10 +8433,10 @@
       <c r="B207">
         <v>-5.5E-2</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D207" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E207">
@@ -8465,10 +8465,10 @@
       <c r="B208">
         <v>-9.1200000000000003E-2</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="D208" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E208">
@@ -8497,10 +8497,10 @@
       <c r="B209">
         <v>-0.1153</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D209" s="3" t="s">
+      <c r="D209" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E209">
@@ -8529,10 +8529,10 @@
       <c r="B210">
         <v>-0.13950000000000001</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="D210" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E210">
@@ -8561,10 +8561,10 @@
       <c r="B211">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="D211" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E211">
@@ -8593,10 +8593,10 @@
       <c r="B212">
         <v>-7.8E-2</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D212" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E212">
@@ -8625,10 +8625,10 @@
       <c r="B213">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="D213" s="1" t="s">
         <v>267</v>
       </c>
       <c r="E213">
@@ -8657,10 +8657,10 @@
       <c r="B214">
         <v>-3.4299999999999997E-2</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D214" s="3" t="s">
+      <c r="D214" s="1" t="s">
         <v>267</v>
       </c>
       <c r="E214">
@@ -8689,10 +8689,10 @@
       <c r="B215">
         <v>-3.9699999999999999E-2</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="D215" s="1" t="s">
         <v>267</v>
       </c>
       <c r="E215">
@@ -8721,10 +8721,10 @@
       <c r="B216">
         <v>-4.5400000000000003E-2</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="D216" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E216">
@@ -8753,10 +8753,10 @@
       <c r="B217">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D217" s="3" t="s">
+      <c r="D217" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E217">
@@ -8785,10 +8785,10 @@
       <c r="B218">
         <v>-9.74E-2</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="D218" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E218">
@@ -8817,10 +8817,10 @@
       <c r="B219">
         <v>-1.6400000000000001E-2</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="D219" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E219">
@@ -8849,10 +8849,10 @@
       <c r="B220">
         <v>-6.0299999999999999E-2</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="D220" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E220">
@@ -8881,10 +8881,10 @@
       <c r="B221">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="D221" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E221">
@@ -8913,10 +8913,10 @@
       <c r="B222">
         <v>-9.5299999999999996E-2</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D222" s="3" t="s">
+      <c r="D222" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E222">
@@ -8945,10 +8945,10 @@
       <c r="B223">
         <v>-4.3299999999999998E-2</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D223" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E223">
@@ -8977,10 +8977,10 @@
       <c r="B224">
         <v>-8.6199999999999999E-2</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="D224" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E224">
@@ -9009,10 +9009,10 @@
       <c r="B225">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D225" s="3" t="s">
+      <c r="D225" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E225">
@@ -9041,10 +9041,10 @@
       <c r="B226">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="D226" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E226">
@@ -9073,10 +9073,10 @@
       <c r="B227">
         <v>-1.7899999999999999E-2</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="D227" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E227">
@@ -9105,10 +9105,10 @@
       <c r="B228">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D228" s="3" t="s">
+      <c r="D228" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E228">
@@ -9137,10 +9137,10 @@
       <c r="B229">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="D229" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E229">
@@ -9169,10 +9169,10 @@
       <c r="B230">
         <v>-0.17630000000000001</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="D230" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E230">
@@ -9201,10 +9201,10 @@
       <c r="B231">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D231" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E231">
@@ -9233,10 +9233,10 @@
       <c r="B232">
         <v>0.12509999999999999</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="D232" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E232">
@@ -9265,10 +9265,10 @@
       <c r="B233">
         <v>0.11749999999999999</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D233" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E233">
@@ -9297,10 +9297,10 @@
       <c r="B234">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="D234" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E234">
@@ -9329,10 +9329,10 @@
       <c r="B235">
         <v>0.1323</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D235" s="3" t="s">
+      <c r="D235" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E235">
@@ -9361,10 +9361,10 @@
       <c r="B236">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D236" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E236">
@@ -9393,10 +9393,10 @@
       <c r="B237">
         <v>-0.15690000000000001</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="D237" s="1" t="s">
         <v>295</v>
       </c>
       <c r="E237">
@@ -9425,10 +9425,10 @@
       <c r="B238">
         <v>-0.18840000000000001</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="D238" s="1" t="s">
         <v>295</v>
       </c>
       <c r="E238">
@@ -9450,17 +9450,17 @@
         <v>267</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>-0.18720000000000001</v>
       </c>
       <c r="B239">
         <v>-0.14899999999999999</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D239" s="3" t="s">
+      <c r="D239" s="1" t="s">
         <v>295</v>
       </c>
       <c r="E239">
@@ -9489,10 +9489,10 @@
       <c r="B240">
         <v>-0.15920000000000001</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="D240" s="1" t="s">
         <v>295</v>
       </c>
       <c r="E240">
@@ -9521,10 +9521,10 @@
       <c r="B241">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="D241" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E241">
@@ -9553,10 +9553,10 @@
       <c r="B242">
         <v>-8.5000000000000006E-3</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="D242" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E242">
@@ -9585,10 +9585,10 @@
       <c r="B243">
         <v>-2.1299999999999999E-2</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="D243" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E243">
@@ -9617,10 +9617,10 @@
       <c r="B244">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D244" s="3" t="s">
+      <c r="D244" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E244">
@@ -9649,10 +9649,10 @@
       <c r="B245">
         <v>-0.14660000000000001</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="D245" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E245">
@@ -9681,10 +9681,10 @@
       <c r="B246">
         <v>-0.1173</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="D246" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E246">
@@ -9713,10 +9713,10 @@
       <c r="B247">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D247" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E247">
@@ -9745,10 +9745,10 @@
       <c r="B248">
         <v>-0.10680000000000001</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D248" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E248">
@@ -9777,10 +9777,10 @@
       <c r="B249">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D249" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E249">
@@ -9809,10 +9809,10 @@
       <c r="B250">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="D250" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E250">
@@ -9841,10 +9841,10 @@
       <c r="B251">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="D251" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E251">
@@ -9873,10 +9873,10 @@
       <c r="B252">
         <v>-3.5400000000000001E-2</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="D252" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E252">
@@ -9905,10 +9905,10 @@
       <c r="B253">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="D253" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E253">
@@ -9937,10 +9937,10 @@
       <c r="B254">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="D254" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E254">
@@ -9969,10 +9969,10 @@
       <c r="B255">
         <v>-0.1012</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D255" s="3" t="s">
+      <c r="D255" s="1" t="s">
         <v>316</v>
       </c>
       <c r="E255">
@@ -9994,17 +9994,17 @@
         <v>261</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>-0.158</v>
       </c>
       <c r="B256">
         <v>-7.8299999999999995E-2</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C256" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D256" s="1" t="s">
         <v>316</v>
       </c>
       <c r="E256">
@@ -10033,10 +10033,10 @@
       <c r="B257">
         <v>-0.11409999999999999</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="D257" s="1" t="s">
         <v>316</v>
       </c>
       <c r="E257">
@@ -10065,10 +10065,10 @@
       <c r="B258">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D258" s="1" t="s">
         <v>320</v>
       </c>
       <c r="E258">
@@ -10097,10 +10097,10 @@
       <c r="B259">
         <v>2.92E-2</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D259" s="1" t="s">
         <v>320</v>
       </c>
       <c r="E259">
@@ -10129,10 +10129,10 @@
       <c r="B260">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D260" s="1" t="s">
         <v>320</v>
       </c>
       <c r="E260">
@@ -10161,10 +10161,10 @@
       <c r="B261">
         <v>-1.3299999999999999E-2</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D261" s="1" t="s">
         <v>324</v>
       </c>
       <c r="E261">
@@ -10193,10 +10193,10 @@
       <c r="B262">
         <v>-6.1499999999999999E-2</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D262" s="3" t="s">
+      <c r="D262" s="1" t="s">
         <v>324</v>
       </c>
       <c r="E262">
@@ -10225,10 +10225,10 @@
       <c r="B263">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="D263" s="1" t="s">
         <v>324</v>
       </c>
       <c r="E263">
@@ -10257,10 +10257,10 @@
       <c r="B264">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C264" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="D264" s="1" t="s">
         <v>324</v>
       </c>
       <c r="E264">
@@ -10289,10 +10289,10 @@
       <c r="B265">
         <v>-7.8799999999999995E-2</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="D265" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E265">
@@ -10321,10 +10321,10 @@
       <c r="B266">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D266" s="3" t="s">
+      <c r="D266" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E266">
@@ -10353,10 +10353,10 @@
       <c r="B267">
         <v>-0.16700000000000001</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="D267" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E267">
@@ -10385,10 +10385,10 @@
       <c r="B268">
         <v>-3.0999999999999999E-3</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D268" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E268">
@@ -10417,10 +10417,10 @@
       <c r="B269">
         <v>-5.11E-2</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="D269" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E269">
@@ -10449,10 +10449,10 @@
       <c r="B270">
         <v>-2.29E-2</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D270" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E270">
@@ -10481,10 +10481,10 @@
       <c r="B271">
         <v>-3.2899999999999999E-2</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D271" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E271">
@@ -10513,10 +10513,10 @@
       <c r="B272">
         <v>2.98E-2</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D272" s="3" t="s">
+      <c r="D272" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E272">
@@ -10545,10 +10545,10 @@
       <c r="B273">
         <v>-0.15090000000000001</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="D273" s="1" t="s">
         <v>339</v>
       </c>
       <c r="E273">
@@ -10577,10 +10577,10 @@
       <c r="B274">
         <v>-4.3999999999999997E-2</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D274" s="1" t="s">
         <v>339</v>
       </c>
       <c r="E274">
@@ -10609,10 +10609,10 @@
       <c r="B275">
         <v>-3.8100000000000002E-2</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D275" s="1" t="s">
         <v>339</v>
       </c>
       <c r="E275">
@@ -10641,10 +10641,10 @@
       <c r="B276">
         <v>6.88E-2</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D276" s="3" t="s">
+      <c r="D276" s="1" t="s">
         <v>339</v>
       </c>
       <c r="E276">
@@ -10673,10 +10673,10 @@
       <c r="B277">
         <v>-4.3E-3</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="D277" s="1" t="s">
         <v>344</v>
       </c>
       <c r="E277">
@@ -10705,10 +10705,10 @@
       <c r="B278">
         <v>-2.1499999999999998E-2</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="D278" s="1" t="s">
         <v>344</v>
       </c>
       <c r="E278">
@@ -10737,10 +10737,10 @@
       <c r="B279">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="C279" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="D279" s="1" t="s">
         <v>344</v>
       </c>
       <c r="E279">
@@ -10769,10 +10769,10 @@
       <c r="B280">
         <v>0</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="D280" s="1" t="s">
         <v>344</v>
       </c>
       <c r="E280">
@@ -10801,10 +10801,10 @@
       <c r="B281">
         <v>-0.1769</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C281" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D281" s="3" t="s">
+      <c r="D281" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E281">
@@ -10833,10 +10833,10 @@
       <c r="B282">
         <v>-0.156</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="D282" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E282">
@@ -10865,10 +10865,10 @@
       <c r="B283">
         <v>-0.23080000000000001</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="C283" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D283" s="3" t="s">
+      <c r="D283" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E283">
@@ -10897,10 +10897,10 @@
       <c r="B284">
         <v>-0.24110000000000001</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D284" s="3" t="s">
+      <c r="D284" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E284">
@@ -10929,10 +10929,10 @@
       <c r="B285">
         <v>-0.18149999999999999</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C285" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D285" s="3" t="s">
+      <c r="D285" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E285">
@@ -10961,10 +10961,10 @@
       <c r="B286">
         <v>-0.20619999999999999</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="D286" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E286">
@@ -10993,10 +10993,10 @@
       <c r="B287">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="D287" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E287">
@@ -11025,10 +11025,10 @@
       <c r="B288">
         <v>-2.64E-2</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="C288" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D288" s="3" t="s">
+      <c r="D288" s="1" t="s">
         <v>356</v>
       </c>
       <c r="E288">
@@ -11057,10 +11057,10 @@
       <c r="B289">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="D289" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E289">
@@ -11089,10 +11089,10 @@
       <c r="B290">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C290" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="D290" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E290">
@@ -11114,17 +11114,17 @@
         <v>311</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>-2.9100000000000001E-2</v>
       </c>
       <c r="B291">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C291" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D291" s="3" t="s">
+      <c r="D291" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E291">
@@ -11153,10 +11153,10 @@
       <c r="B292">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C292" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D292" s="3" t="s">
+      <c r="D292" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E292">
@@ -11185,10 +11185,10 @@
       <c r="B293">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C293" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D293" s="3" t="s">
+      <c r="D293" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E293">
@@ -11217,10 +11217,10 @@
       <c r="B294">
         <v>6.08E-2</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C294" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D294" s="3" t="s">
+      <c r="D294" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E294">
@@ -11249,10 +11249,10 @@
       <c r="B295">
         <v>-2.8E-3</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C295" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D295" s="3" t="s">
+      <c r="D295" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E295">
@@ -11281,10 +11281,10 @@
       <c r="B296">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C296" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D296" s="3" t="s">
+      <c r="D296" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E296">
@@ -11313,10 +11313,10 @@
       <c r="B297">
         <v>-3.6600000000000001E-2</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C297" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D297" s="3" t="s">
+      <c r="D297" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E297">
@@ -11338,17 +11338,17 @@
         <v>890</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>-0.17699999999999999</v>
       </c>
       <c r="B298">
         <v>-0.14860000000000001</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C298" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="D298" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E298">
@@ -11377,10 +11377,10 @@
       <c r="B299">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C299" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="D299" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E299">
@@ -11409,10 +11409,10 @@
       <c r="B300">
         <v>1.54E-2</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C300" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="D300" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E300">
@@ -11441,10 +11441,10 @@
       <c r="B301">
         <v>1.41E-2</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C301" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D301" s="3" t="s">
+      <c r="D301" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E301">
@@ -11473,10 +11473,10 @@
       <c r="B302">
         <v>-0.15459999999999999</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C302" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D302" s="3" t="s">
+      <c r="D302" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E302">
@@ -11505,10 +11505,10 @@
       <c r="B303">
         <v>-0.10150000000000001</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C303" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D303" s="3" t="s">
+      <c r="D303" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E303">
@@ -11537,10 +11537,10 @@
       <c r="B304">
         <v>-1E-4</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D304" s="3" t="s">
+      <c r="D304" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E304">
@@ -11569,10 +11569,10 @@
       <c r="B305">
         <v>-5.0799999999999998E-2</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C305" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D305" s="3" t="s">
+      <c r="D305" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E305">
@@ -11601,10 +11601,10 @@
       <c r="B306">
         <v>-7.9100000000000004E-2</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C306" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D306" s="3" t="s">
+      <c r="D306" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E306">
@@ -11633,10 +11633,10 @@
       <c r="B307">
         <v>-5.4100000000000002E-2</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C307" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D307" s="3" t="s">
+      <c r="D307" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E307">
@@ -11665,10 +11665,10 @@
       <c r="B308">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C308" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D308" s="3" t="s">
+      <c r="D308" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E308">
@@ -11697,10 +11697,10 @@
       <c r="B309">
         <v>-0.1258</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C309" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D309" s="3" t="s">
+      <c r="D309" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E309">
@@ -11729,10 +11729,10 @@
       <c r="B310">
         <v>-7.5200000000000003E-2</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C310" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D310" s="3" t="s">
+      <c r="D310" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E310">
@@ -11761,10 +11761,10 @@
       <c r="B311">
         <v>-1.29E-2</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="C311" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D311" s="3" t="s">
+      <c r="D311" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E311">
@@ -11793,10 +11793,10 @@
       <c r="B312">
         <v>-0.11409999999999999</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C312" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D312" s="3" t="s">
+      <c r="D312" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E312">
@@ -11825,10 +11825,10 @@
       <c r="B313">
         <v>-3.4700000000000002E-2</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C313" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D313" s="3" t="s">
+      <c r="D313" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E313">
@@ -11857,10 +11857,10 @@
       <c r="B314">
         <v>-9.0999999999999998E-2</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C314" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D314" s="3" t="s">
+      <c r="D314" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E314">
@@ -11889,10 +11889,10 @@
       <c r="B315">
         <v>-0.1288</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C315" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D315" s="3" t="s">
+      <c r="D315" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E315">
@@ -11921,10 +11921,10 @@
       <c r="B316">
         <v>-2.4400000000000002E-2</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C316" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D316" s="3" t="s">
+      <c r="D316" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E316">
@@ -11953,10 +11953,10 @@
       <c r="B317">
         <v>-9.9099999999999994E-2</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C317" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D317" s="3" t="s">
+      <c r="D317" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E317">
@@ -11978,17 +11978,17 @@
         <v>448</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>-1.0699999999999999E-2</v>
       </c>
       <c r="B318">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C318" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D318" s="3" t="s">
+      <c r="D318" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E318">
@@ -12017,10 +12017,10 @@
       <c r="B319">
         <v>-1.4E-2</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C319" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D319" s="3" t="s">
+      <c r="D319" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E319">
@@ -12049,10 +12049,10 @@
       <c r="B320">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D320" s="3" t="s">
+      <c r="D320" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E320">
@@ -12081,10 +12081,10 @@
       <c r="B321">
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C321" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D321" s="3" t="s">
+      <c r="D321" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E321">
@@ -12113,10 +12113,10 @@
       <c r="B322">
         <v>-2.5899999999999999E-2</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C322" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D322" s="3" t="s">
+      <c r="D322" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E322">
@@ -12145,10 +12145,10 @@
       <c r="B323">
         <v>-8.0699999999999994E-2</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C323" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D323" s="3" t="s">
+      <c r="D323" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E323">
@@ -12177,10 +12177,10 @@
       <c r="B324">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C324" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D324" s="3" t="s">
+      <c r="D324" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E324">
@@ -12209,10 +12209,10 @@
       <c r="B325">
         <v>-3.1099999999999999E-2</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C325" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D325" s="3" t="s">
+      <c r="D325" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E325">
@@ -12241,10 +12241,10 @@
       <c r="B326">
         <v>-0.13719999999999999</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C326" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D326" s="3" t="s">
+      <c r="D326" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E326">
@@ -12273,10 +12273,10 @@
       <c r="B327">
         <v>-4.8099999999999997E-2</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="C327" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D327" s="3" t="s">
+      <c r="D327" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E327">
@@ -12305,10 +12305,10 @@
       <c r="B328">
         <v>-9.3299999999999994E-2</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C328" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D328" s="3" t="s">
+      <c r="D328" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E328">
@@ -12337,10 +12337,10 @@
       <c r="B329">
         <v>-9.0300000000000005E-2</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C329" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D329" s="3" t="s">
+      <c r="D329" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E329">
@@ -12369,10 +12369,10 @@
       <c r="B330">
         <v>-8.8000000000000005E-3</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C330" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D330" s="3" t="s">
+      <c r="D330" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E330">
@@ -12394,17 +12394,17 @@
         <v>721</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>-0.1038</v>
       </c>
       <c r="B331">
         <v>-4.2700000000000002E-2</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C331" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D331" s="3" t="s">
+      <c r="D331" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E331">
@@ -12433,10 +12433,10 @@
       <c r="B332">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C332" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D332" s="3" t="s">
+      <c r="D332" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E332">
@@ -12465,10 +12465,10 @@
       <c r="B333">
         <v>-5.2200000000000003E-2</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C333" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D333" s="3" t="s">
+      <c r="D333" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E333">
@@ -12497,10 +12497,10 @@
       <c r="B334">
         <v>-4.19E-2</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C334" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D334" s="3" t="s">
+      <c r="D334" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E334">
@@ -12529,10 +12529,10 @@
       <c r="B335">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C335" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D335" s="3" t="s">
+      <c r="D335" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E335">
@@ -12561,10 +12561,10 @@
       <c r="B336">
         <v>-0.18360000000000001</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="C336" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D336" s="3" t="s">
+      <c r="D336" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E336">
@@ -12593,10 +12593,10 @@
       <c r="B337">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="C337" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D337" s="3" t="s">
+      <c r="D337" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E337">
@@ -12625,10 +12625,10 @@
       <c r="B338">
         <v>-0.1346</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="C338" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D338" s="3" t="s">
+      <c r="D338" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E338">
@@ -12657,10 +12657,10 @@
       <c r="B339">
         <v>-8.6099999999999996E-2</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="C339" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D339" s="3" t="s">
+      <c r="D339" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E339">
@@ -12689,10 +12689,10 @@
       <c r="B340">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="C340" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D340" s="3" t="s">
+      <c r="D340" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E340">
@@ -12721,10 +12721,10 @@
       <c r="B341">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="C341" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D341" s="3" t="s">
+      <c r="D341" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E341">
@@ -12753,10 +12753,10 @@
       <c r="B342">
         <v>2.7E-2</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="C342" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D342" s="3" t="s">
+      <c r="D342" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E342">
@@ -12785,10 +12785,10 @@
       <c r="B343">
         <v>-4.3700000000000003E-2</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C343" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D343" s="3" t="s">
+      <c r="D343" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E343">
@@ -12817,10 +12817,10 @@
       <c r="B344">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="C344" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D344" s="3" t="s">
+      <c r="D344" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E344">
@@ -12849,10 +12849,10 @@
       <c r="B345">
         <v>0.1222</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="C345" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D345" s="3" t="s">
+      <c r="D345" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E345">
@@ -12881,10 +12881,10 @@
       <c r="B346">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="C346" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D346" s="3" t="s">
+      <c r="D346" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E346">
@@ -12913,10 +12913,10 @@
       <c r="B347">
         <v>-3.5200000000000002E-2</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="C347" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D347" s="3" t="s">
+      <c r="D347" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E347">
@@ -12945,10 +12945,10 @@
       <c r="B348">
         <v>0.1293</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="C348" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D348" s="3" t="s">
+      <c r="D348" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E348">
@@ -12977,10 +12977,10 @@
       <c r="B349">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="C349" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D349" s="3" t="s">
+      <c r="D349" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E349">
@@ -13009,10 +13009,10 @@
       <c r="B350">
         <v>-5.2699999999999997E-2</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="C350" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D350" s="3" t="s">
+      <c r="D350" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E350">
@@ -13041,10 +13041,10 @@
       <c r="B351">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="C351" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D351" s="3" t="s">
+      <c r="D351" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E351">
@@ -13073,10 +13073,10 @@
       <c r="B352">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="C352" s="3" t="s">
+      <c r="C352" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D352" s="3" t="s">
+      <c r="D352" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E352">
@@ -13105,10 +13105,10 @@
       <c r="B353">
         <v>-5.8099999999999999E-2</v>
       </c>
-      <c r="C353" s="3" t="s">
+      <c r="C353" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D353" s="3" t="s">
+      <c r="D353" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E353">
@@ -13137,10 +13137,10 @@
       <c r="B354">
         <v>-2.0199999999999999E-2</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="C354" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D354" s="3" t="s">
+      <c r="D354" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E354">
@@ -13169,10 +13169,10 @@
       <c r="B355">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="C355" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D355" s="3" t="s">
+      <c r="D355" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E355">
@@ -13201,10 +13201,10 @@
       <c r="B356">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="C356" s="3" t="s">
+      <c r="C356" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D356" s="3" t="s">
+      <c r="D356" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E356">
@@ -13233,10 +13233,10 @@
       <c r="B357">
         <v>-5.4000000000000003E-3</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="C357" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D357" s="3" t="s">
+      <c r="D357" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E357">
@@ -13265,10 +13265,10 @@
       <c r="B358">
         <v>3.95E-2</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="C358" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D358" s="3" t="s">
+      <c r="D358" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E358">
@@ -13297,10 +13297,10 @@
       <c r="B359">
         <v>-3.0700000000000002E-2</v>
       </c>
-      <c r="C359" s="3" t="s">
+      <c r="C359" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D359" s="3" t="s">
+      <c r="D359" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E359">
@@ -13329,10 +13329,10 @@
       <c r="B360">
         <v>1.46E-2</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="C360" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D360" s="3" t="s">
+      <c r="D360" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E360">
@@ -13361,10 +13361,10 @@
       <c r="B361">
         <v>6.3799999999999996E-2</v>
       </c>
-      <c r="C361" s="3" t="s">
+      <c r="C361" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D361" s="3" t="s">
+      <c r="D361" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E361">
@@ -13393,10 +13393,10 @@
       <c r="B362">
         <v>-4.41E-2</v>
       </c>
-      <c r="C362" s="3" t="s">
+      <c r="C362" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D362" s="3" t="s">
+      <c r="D362" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E362">
@@ -13425,10 +13425,10 @@
       <c r="B363">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="C363" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D363" s="3" t="s">
+      <c r="D363" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E363">
@@ -13457,10 +13457,10 @@
       <c r="B364">
         <v>0.05</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="C364" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D364" s="3" t="s">
+      <c r="D364" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E364">
@@ -13489,10 +13489,10 @@
       <c r="B365">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="C365" s="3" t="s">
+      <c r="C365" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D365" s="3" t="s">
+      <c r="D365" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E365">
@@ -13521,10 +13521,10 @@
       <c r="B366">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="C366" s="3" t="s">
+      <c r="C366" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D366" s="3" t="s">
+      <c r="D366" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E366">
@@ -13553,10 +13553,10 @@
       <c r="B367">
         <v>-0.1769</v>
       </c>
-      <c r="C367" s="3" t="s">
+      <c r="C367" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D367" s="3" t="s">
+      <c r="D367" s="1" t="s">
         <v>413</v>
       </c>
       <c r="E367">
@@ -13585,10 +13585,10 @@
       <c r="B368">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="C368" s="3" t="s">
+      <c r="C368" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D368" s="3" t="s">
+      <c r="D368" s="1" t="s">
         <v>441</v>
       </c>
       <c r="E368">
@@ -13617,10 +13617,10 @@
       <c r="B369">
         <v>1.24E-2</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="C369" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D369" s="3" t="s">
+      <c r="D369" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E369">
@@ -13649,10 +13649,10 @@
       <c r="B370">
         <v>0.18210000000000001</v>
       </c>
-      <c r="C370" s="3" t="s">
+      <c r="C370" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D370" s="3" t="s">
+      <c r="D370" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E370">
@@ -13681,10 +13681,10 @@
       <c r="B371">
         <v>-2.6700000000000002E-2</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="C371" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D371" s="3" t="s">
+      <c r="D371" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E371">
@@ -13713,10 +13713,10 @@
       <c r="B372">
         <v>-0.10630000000000001</v>
       </c>
-      <c r="C372" s="3" t="s">
+      <c r="C372" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D372" s="3" t="s">
+      <c r="D372" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E372">
@@ -13745,10 +13745,10 @@
       <c r="B373">
         <v>-5.45E-2</v>
       </c>
-      <c r="C373" s="3" t="s">
+      <c r="C373" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D373" s="3" t="s">
+      <c r="D373" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E373">
@@ -13777,10 +13777,10 @@
       <c r="B374">
         <v>-4.3200000000000002E-2</v>
       </c>
-      <c r="C374" s="3" t="s">
+      <c r="C374" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D374" s="3" t="s">
+      <c r="D374" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E374">
@@ -13809,10 +13809,10 @@
       <c r="B375">
         <v>-2.47E-2</v>
       </c>
-      <c r="C375" s="3" t="s">
+      <c r="C375" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D375" s="3" t="s">
+      <c r="D375" s="1" t="s">
         <v>366</v>
       </c>
       <c r="E375">
@@ -13841,10 +13841,10 @@
       <c r="B376">
         <v>-8.1199999999999994E-2</v>
       </c>
-      <c r="C376" s="3" t="s">
+      <c r="C376" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D376" s="3" t="s">
+      <c r="D376" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E376">
@@ -13873,7 +13873,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+    <oddFooter xml:space="preserve">&amp;C&amp;P+123 </oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/wp5/WP5_Universities Social Private Returns.xlsx
+++ b/wp5/WP5_Universities Social Private Returns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Country\Russia\Data\SEASHELL\SEABYTE\edreru\wp5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FEAFBD-2801-4036-B8AC-D7D3A78FEA5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB1F866-1435-42AD-87D9-29AC3C257726}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1386,15 +1386,9 @@
     <t>Удмуртский государственный университет</t>
   </si>
   <si>
-    <t>social returns</t>
-  </si>
-  <si>
     <t>private returns</t>
   </si>
   <si>
-    <t>Name of College</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -1417,6 +1411,12 @@
   </si>
   <si>
     <t>LIST OF UNIVERSITIES ARRANGED BY REGION AND INSTITUTION NAME</t>
+  </si>
+  <si>
+    <t>Name of University</t>
+  </si>
+  <si>
+    <t>fiscal returns</t>
   </si>
 </sst>
 </file>
@@ -1543,9 +1543,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A2:J376" totalsRowShown="0" headerRowDxfId="2">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="social returns"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fiscal returns"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="private returns"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name of College" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name of University" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Region" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Total Revenue (in million Rubles)"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Total Paid Fees (in million Rubles)"/>
@@ -1839,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J376"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1854,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1868,34 +1868,34 @@
     </row>
     <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D2" t="s">
         <v>452</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
